--- a/BalanceSheet/GPC_bal.xlsx
+++ b/BalanceSheet/GPC_bal.xlsx
@@ -3168,7 +3168,7 @@
         <v>155000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-27722000.0</v>
+        <v>147000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>147000000.0</v>
@@ -4742,7 +4742,7 @@
         <v>4085000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>4246000000.0</v>
+        <v>3149107000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>2966735000.0</v>
@@ -4869,7 +4869,7 @@
         <v>4439000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>4523000000.0</v>
+        <v>3426099000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>3418010000.0</v>
